--- a/Additional Assets/Labels and Rules Worksheet.xlsx
+++ b/Additional Assets/Labels and Rules Worksheet.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/Documents/Projects/Compliance Getting Started/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/Documents/Projects/Compliance Getting Started/Additional Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193C74B-4A37-124E-8216-C20E4152A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CE0EC-CF9C-8D45-9236-D3476802A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2600" yWindow="4280" windowWidth="22540" windowHeight="24960" activeTab="1" xr2:uid="{74780FA7-C538-4090-A9C3-45A1B9CCCEEE}"/>
-    <workbookView xWindow="25700" yWindow="4360" windowWidth="25920" windowHeight="25520" activeTab="2" xr2:uid="{F464552E-C3B5-EF42-B4F2-B7D96B329A47}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="32140" activeTab="2" xr2:uid="{F464552E-C3B5-EF42-B4F2-B7D96B329A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Units" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="142">
   <si>
     <t>Company Name</t>
   </si>
@@ -72,15 +75,6 @@
     <t>proxy,web,db,cache,sch-tasks</t>
   </si>
   <si>
-    <t>infra-whitelisted-domains</t>
-  </si>
-  <si>
-    <t>infra-blacklisted-domains</t>
-  </si>
-  <si>
-    <t>infra-blacklisted-cidr</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>true, false</t>
   </si>
   <si>
-    <t>Security (global app rules)</t>
-  </si>
-  <si>
     <t>app-role=web</t>
   </si>
   <si>
@@ -123,39 +114,15 @@
     <t>policy-pass-devops=false</t>
   </si>
   <si>
-    <t>selector (applies to)</t>
-  </si>
-  <si>
-    <t>Ingress</t>
-  </si>
-  <si>
-    <t>pass-pci2pci-only</t>
-  </si>
-  <si>
     <t>infra-security=pci</t>
   </si>
   <si>
-    <t>Ingress/Egress</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>infra-pod-cidr=true</t>
-  </si>
-  <si>
-    <t>egress</t>
-  </si>
-  <si>
     <t>cloud, repository</t>
   </si>
   <si>
-    <t>allow-infra-egress</t>
-  </si>
-  <si>
-    <t>To: infra-access=repository OR infra-access=cloud</t>
-  </si>
-  <si>
     <t>infra-common</t>
   </si>
   <si>
@@ -171,57 +138,12 @@
     <t>Host endpoint label</t>
   </si>
   <si>
-    <t>allow-infra-monitoring</t>
-  </si>
-  <si>
-    <t>app-role=proxy</t>
-  </si>
-  <si>
-    <t>allow-proxy-to-web</t>
-  </si>
-  <si>
-    <t>From: infra-ext-monitor=true OR infra-monitor=true</t>
-  </si>
-  <si>
-    <t>To: infra-ext-monitor=true OR infra-monitor=true</t>
-  </si>
-  <si>
-    <t>deny-compliance-tiers</t>
-  </si>
-  <si>
-    <t>infra-security=pci OR infra-security=ei3pa</t>
-  </si>
-  <si>
     <t>Deny</t>
   </si>
   <si>
-    <t>deny-proxy-to-other</t>
-  </si>
-  <si>
     <t>infra-ext-access</t>
   </si>
   <si>
-    <t>allow-ingress-to-web</t>
-  </si>
-  <si>
-    <t>From: pass infra-security=pci</t>
-  </si>
-  <si>
-    <t>To: pass infra-security=pci</t>
-  </si>
-  <si>
-    <t>To: allow app-role=web</t>
-  </si>
-  <si>
-    <t>From: allow infra-trusted-lb=true OR infra-intranet-cidr=true</t>
-  </si>
-  <si>
-    <t>To: allow Ports 80 OR 443</t>
-  </si>
-  <si>
-    <t>pass-to-application</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -297,17 +219,274 @@
     <t>pci</t>
   </si>
   <si>
-    <t>Namespace Example</t>
-  </si>
-  <si>
     <t>tenant=TEN-A</t>
+  </si>
+  <si>
+    <t>infra-allowed-domains</t>
+  </si>
+  <si>
+    <t>namespace/pod label</t>
+  </si>
+  <si>
+    <t>infra-blocked-domains</t>
+  </si>
+  <si>
+    <t>infra-blocked-cidr</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>ten-a, ten-b</t>
+  </si>
+  <si>
+    <t>app-id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>app-component</t>
+  </si>
+  <si>
+    <t>app-id=hipstershop</t>
+  </si>
+  <si>
+    <t>app-component=frontend</t>
+  </si>
+  <si>
+    <t>Namespace Example (hipstershop)</t>
+  </si>
+  <si>
+    <t>Selector</t>
+  </si>
+  <si>
+    <t>Security Tier Rules</t>
+  </si>
+  <si>
+    <t>Platform Tier Rules</t>
+  </si>
+  <si>
+    <t>Application Tier Rules</t>
+  </si>
+  <si>
+    <t>pci-allowlist</t>
+  </si>
+  <si>
+    <t>pci-restrict</t>
+  </si>
+  <si>
+    <t>security-default-pass</t>
+  </si>
+  <si>
+    <t>security-default-deny</t>
+  </si>
+  <si>
+    <t>app=frontend</t>
+  </si>
+  <si>
+    <t>pci=true</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>Ingress Selector</t>
+  </si>
+  <si>
+    <t>Egress Selector</t>
+  </si>
+  <si>
+    <t>Ingress Action</t>
+  </si>
+  <si>
+    <t>Egress Action</t>
+  </si>
+  <si>
+    <t>all()</t>
+  </si>
+  <si>
+    <t>infra-ingress-pci=true</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>app=kube-dns</t>
+  </si>
+  <si>
+    <t>allow-dns</t>
+  </si>
+  <si>
+    <t>default-egress-allow</t>
+  </si>
+  <si>
+    <t>namespace=default</t>
+  </si>
+  <si>
+    <t>platform-default-pass</t>
+  </si>
+  <si>
+    <t>platform-default-deny</t>
+  </si>
+  <si>
+    <t>app-hipstershop-pass</t>
+  </si>
+  <si>
+    <t>tenant=hipstershop</t>
+  </si>
+  <si>
+    <t>checkoutservice</t>
+  </si>
+  <si>
+    <t>app=checkoutservice</t>
+  </si>
+  <si>
+    <t>TCP:7070</t>
+  </si>
+  <si>
+    <t>TCP:5050</t>
+  </si>
+  <si>
+    <t>TCP:3550
+app=productcatalogservice</t>
+  </si>
+  <si>
+    <t>cartservice</t>
+  </si>
+  <si>
+    <t>app=cartservice</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>redis-cart</t>
+  </si>
+  <si>
+    <t>app=redis-cart</t>
+  </si>
+  <si>
+    <t>productcatalogservice</t>
+  </si>
+  <si>
+    <t>app=productcatalogservice</t>
+  </si>
+  <si>
+    <t>emailservice</t>
+  </si>
+  <si>
+    <t>app=emailservice</t>
+  </si>
+  <si>
+    <t>paymentservice</t>
+  </si>
+  <si>
+    <t>app=paymentservice</t>
+  </si>
+  <si>
+    <t>currencyservice</t>
+  </si>
+  <si>
+    <t>app=currencyservice</t>
+  </si>
+  <si>
+    <t>shippingservice</t>
+  </si>
+  <si>
+    <t>app=shippingservice</t>
+  </si>
+  <si>
+    <t>recommendationservice</t>
+  </si>
+  <si>
+    <t>app=recommendationservice</t>
+  </si>
+  <si>
+    <t>TCP:8080
+app=frontend</t>
+  </si>
+  <si>
+    <t>adservice</t>
+  </si>
+  <si>
+    <t>app=adservice</t>
+  </si>
+  <si>
+    <t>Ingress Destination Selector</t>
+  </si>
+  <si>
+    <t>Ingress Source Selector</t>
+  </si>
+  <si>
+    <t>Egress Destination Selector</t>
+  </si>
+  <si>
+    <t>app=frontend
+app=checkoutservice</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>app=checkoutservice
+app=frontend
+app=recommendationservice</t>
+  </si>
+  <si>
+    <t>app=checkoutservice
+app=frontend</t>
+  </si>
+  <si>
+    <t>loadgenerator</t>
+  </si>
+  <si>
+    <t>app=loadgenerator</t>
+  </si>
+  <si>
+    <t>TCP:6379 &amp; app=redis-cart</t>
+  </si>
+  <si>
+    <t>TCP:7070 &amp; app=cartservice
+TCP:8080 &amp; app=emailservice
+TCP:50051 &amp; app=paymentservice
+TCP:3550 &amp; app=productcatalogservice
+TCP:50051 &amp; app=shippingservice
+TCP:7000 &amp; app=currencyservice</t>
+  </si>
+  <si>
+    <t>TCP:7070 &amp; app=cartservice
+TCP:3550 &amp; app=productcatalogservice
+TCP:8080 &amp; app=reccomendationservice
+TCP:7000 &amp; app=currencyservice
+TCP:5050 &amp; app=checkoutservice
+TCP:50051 &amp; app=shippingservice
+TCP:9555 &amp; app=adservice</t>
+  </si>
+  <si>
+    <t>TCP:9555</t>
+  </si>
+  <si>
+    <t>TCP:8080</t>
+  </si>
+  <si>
+    <t>TCP:50051</t>
+  </si>
+  <si>
+    <t>TCP:7000</t>
+  </si>
+  <si>
+    <t>TCP:3550</t>
+  </si>
+  <si>
+    <t>TCP:6379</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,19 +511,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -359,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,12 +550,103 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -386,6 +657,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CFCDC6-24C9-C54A-B00D-E35D88D19B41}" name="Table1" displayName="Table1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A2:G7" xr:uid="{08CFCDC6-24C9-C54A-B00D-E35D88D19B41}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{60F99C32-6433-3549-9BDD-186F01010A20}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{388E31F7-FBB7-7A45-86E9-C538DF3F3F84}" name="Selector"/>
+    <tableColumn id="3" xr3:uid="{B2CEEA15-170C-554C-A7BF-EAD768A7E31A}" name="Ingress Action"/>
+    <tableColumn id="4" xr3:uid="{B89B294C-9A88-9A47-8678-CAB48699A661}" name="Ingress Destination Selector"/>
+    <tableColumn id="5" xr3:uid="{F8F68B7B-F14F-0C4A-9813-FC1C26108B22}" name="Ingress Source Selector"/>
+    <tableColumn id="6" xr3:uid="{A84F43E1-5871-0A47-AB30-2E585C7AA749}" name="Egress Action"/>
+    <tableColumn id="7" xr3:uid="{7ADCB67B-8600-E840-AD89-C83B824B9ED4}" name="Egress Selector"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51CDE218-B6A7-1E49-96D8-498FF516502D}" name="Table2" displayName="Table2" ref="A11:G16" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A11:G16" xr:uid="{51CDE218-B6A7-1E49-96D8-498FF516502D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E4B39A7B-A080-EF4D-9D44-62D6A07EBC60}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{30484EA8-B9C6-2E40-A1B2-F892C8E7CE18}" name="Selector"/>
+    <tableColumn id="3" xr3:uid="{03C28A99-0656-8740-AC0B-96772126FACF}" name="Ingress Action"/>
+    <tableColumn id="4" xr3:uid="{57033334-3ABD-EA46-944D-0DFDC9088931}" name="Ingress Selector"/>
+    <tableColumn id="5" xr3:uid="{448050BC-7881-7A45-B5AF-9E9E659304C9}" name="Ingress Source Selector"/>
+    <tableColumn id="6" xr3:uid="{5949D648-DC6A-7A45-9F31-4CBB68796DB2}" name="Egress Action"/>
+    <tableColumn id="7" xr3:uid="{3E6CD0B7-CD05-CD4F-80A9-9C0D805187DD}" name="Egress Selector"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA5796EB-29B5-B249-826D-63E55E267553}" name="Table3" displayName="Table3" ref="A20:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="A20:G32" xr:uid="{BA5796EB-29B5-B249-826D-63E55E267553}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CAB624A2-B30B-F246-A2A9-41BFBA053EB8}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{40683B97-B6B5-8D42-8B40-54A79D0438DD}" name="Selector" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E86E3932-0A2F-5142-82BE-2549FA5B1B80}" name="Ingress Action" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F2DC64B3-5620-CA4E-B231-FCAC9A14AE5E}" name="Ingress Destination Selector" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{79FC835D-3E83-5146-8FF7-1CE9A459EAE4}" name="Ingress Source Selector" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{75383038-2607-894E-99B9-721A245302A3}" name="Egress Action" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FDCF0C41-16E5-4647-95F1-F015D3A9D1E0}" name="Egress Destination Selector" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,10 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83DA11E-0319-4114-A9E4-776FE2C712A9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="114" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -712,79 +1028,79 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -794,12 +1110,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38410FB-BB18-4AE1-A047-D0BF732CCC7C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="132" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -824,46 +1137,48 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -871,170 +1186,237 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,166 +1426,604 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E38A7D-F01F-4680-957F-8A3FFD8C3E75}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="1">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Additional Assets/Labels and Rules Worksheet.xlsx
+++ b/Additional Assets/Labels and Rules Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/Documents/Projects/Compliance Getting Started/Additional Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CE0EC-CF9C-8D45-9236-D3476802A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F74C42-DF46-7642-8E84-BAF69F8E55CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="32140" activeTab="2" xr2:uid="{F464552E-C3B5-EF42-B4F2-B7D96B329A47}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,11 +563,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -660,7 +687,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CFCDC6-24C9-C54A-B00D-E35D88D19B41}" name="Table1" displayName="Table1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{24E2F722-AA4C-A74B-A8C4-71529F11A765}" name="Table4" displayName="Table4" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{24E2F722-AA4C-A74B-A8C4-71529F11A765}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{010DD0D4-3743-554A-AAE2-072DF341F55F}" name="Company Name"/>
+    <tableColumn id="2" xr3:uid="{393DE34A-6794-0D45-89CC-FF20F55B895E}" name="Company Code"/>
+    <tableColumn id="3" xr3:uid="{76F0CE54-6BC8-E946-B081-7EC178C9CD88}" name="Notes" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6AB2FACA-A5FD-C640-A73E-A4BDC4205A00}" name="Table5" displayName="Table5" ref="A1:E19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E19" xr:uid="{6AB2FACA-A5FD-C640-A73E-A4BDC4205A00}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7D12B7D2-22AF-E54A-B18A-DE40C63B408D}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{DF21E3A1-70A0-3A45-A937-4A0F898BBED1}" name="Required"/>
+    <tableColumn id="3" xr3:uid="{677AF9E6-9B5B-3A4D-8661-E30D7A08B78C}" name="Valid values" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8781862D-324B-914A-B866-1FC678128E4A}" name="Responsible team"/>
+    <tableColumn id="5" xr3:uid="{47245E27-BF18-B84F-BD34-E05B0C01EC6D}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CFCDC6-24C9-C54A-B00D-E35D88D19B41}" name="Table1" displayName="Table1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:G7" xr:uid="{08CFCDC6-24C9-C54A-B00D-E35D88D19B41}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{60F99C32-6433-3549-9BDD-186F01010A20}" name="Name"/>
@@ -675,8 +728,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51CDE218-B6A7-1E49-96D8-498FF516502D}" name="Table2" displayName="Table2" ref="A11:G16" totalsRowShown="0" headerRowDxfId="9">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51CDE218-B6A7-1E49-96D8-498FF516502D}" name="Table2" displayName="Table2" ref="A11:G16" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A11:G16" xr:uid="{51CDE218-B6A7-1E49-96D8-498FF516502D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E4B39A7B-A080-EF4D-9D44-62D6A07EBC60}" name="Name"/>
@@ -691,17 +744,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA5796EB-29B5-B249-826D-63E55E267553}" name="Table3" displayName="Table3" ref="A20:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA5796EB-29B5-B249-826D-63E55E267553}" name="Table3" displayName="Table3" ref="A20:G32" totalsRowShown="0" headerRowDxfId="11" dataDxfId="3">
   <autoFilter ref="A20:G32" xr:uid="{BA5796EB-29B5-B249-826D-63E55E267553}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CAB624A2-B30B-F246-A2A9-41BFBA053EB8}" name="Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{40683B97-B6B5-8D42-8B40-54A79D0438DD}" name="Selector" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E86E3932-0A2F-5142-82BE-2549FA5B1B80}" name="Ingress Action" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F2DC64B3-5620-CA4E-B231-FCAC9A14AE5E}" name="Ingress Destination Selector" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{79FC835D-3E83-5146-8FF7-1CE9A459EAE4}" name="Ingress Source Selector" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{75383038-2607-894E-99B9-721A245302A3}" name="Egress Action" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FDCF0C41-16E5-4647-95F1-F015D3A9D1E0}" name="Egress Destination Selector" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CAB624A2-B30B-F246-A2A9-41BFBA053EB8}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{40683B97-B6B5-8D42-8B40-54A79D0438DD}" name="Selector" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E86E3932-0A2F-5142-82BE-2549FA5B1B80}" name="Ingress Action" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F2DC64B3-5620-CA4E-B231-FCAC9A14AE5E}" name="Ingress Destination Selector" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{79FC835D-3E83-5146-8FF7-1CE9A459EAE4}" name="Ingress Source Selector" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{75383038-2607-894E-99B9-721A245302A3}" name="Egress Action" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FDCF0C41-16E5-4647-95F1-F015D3A9D1E0}" name="Egress Destination Selector" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,23 +1059,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83DA11E-0319-4114-A9E4-776FE2C712A9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1105,6 +1160,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1112,7 +1170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38410FB-BB18-4AE1-A047-D0BF732CCC7C}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="132" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1421,6 +1481,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
